--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\NCZ_Interventions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{BF76F5A5-84BB-4B09-A986-B7F164308768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103F44BE-204C-4654-A73C-F69127F894CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6029C1-289B-42E6-99FF-311AF94DA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,33 +1003,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" customWidth="1"/>
+    <col min="4" max="4" width="35.19921875" customWidth="1"/>
+    <col min="5" max="5" width="36.53125" customWidth="1"/>
+    <col min="6" max="6" width="29.46484375" customWidth="1"/>
+    <col min="7" max="7" width="25.53125" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" customWidth="1"/>
-    <col min="16" max="16" width="26.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.73046875" customWidth="1"/>
+    <col min="12" max="12" width="16.46484375" customWidth="1"/>
+    <col min="13" max="13" width="16.53125" customWidth="1"/>
+    <col min="14" max="14" width="20.19921875" customWidth="1"/>
+    <col min="15" max="15" width="14.73046875" customWidth="1"/>
+    <col min="16" max="16" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1041,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C5"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
@@ -1055,7 +1057,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C6" s="3"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1064,7 +1066,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1072,7 +1074,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1080,7 +1082,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -1088,7 +1090,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -1096,7 +1098,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1104,7 +1106,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1112,7 +1114,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1120,7 +1122,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1128,7 +1130,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1136,7 +1138,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="63" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="17">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J22" s="17">
         <v>0</v>
@@ -1438,7 +1440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="J23" s="17">
         <v>0</v>
@@ -1489,7 +1491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="17">
-        <v>1.05</v>
+        <v>-0.05</v>
       </c>
       <c r="J24" s="17">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="17">
-        <v>1.7</v>
+        <v>-0.7</v>
       </c>
       <c r="J28" s="17">
         <v>0</v>
@@ -1744,7 +1746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="17">
-        <v>1.9</v>
+        <v>-0.9</v>
       </c>
       <c r="J29" s="17">
         <v>0</v>
@@ -1795,7 +1797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J30" s="17">
         <v>0</v>
@@ -1845,7 +1847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -1860,7 +1862,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -1875,7 +1877,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -1890,7 +1892,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -1905,7 +1907,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="23"/>
     </row>
-    <row r="35" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -1920,7 +1922,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="23"/>
     </row>
-    <row r="36" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -1935,7 +1937,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="23"/>
     </row>
-    <row r="37" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -1950,7 +1952,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="23"/>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1965,7 +1967,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1980,7 +1982,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -1995,7 +1997,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2010,7 +2012,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2025,7 +2027,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2040,7 +2042,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2055,7 +2057,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
         <v>20</v>
@@ -2072,7 +2074,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
         <v>20</v>
@@ -2091,7 +2093,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2150,29 +2152,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>52</v>
       </c>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\NCZ_Interventions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6029C1-289B-42E6-99FF-311AF94DA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B4317-399F-47CA-9FE1-D39B34556D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -204,15 +204,9 @@
     <t>Optional add to elevator package</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric Chillers </t>
-  </si>
-  <si>
     <t>Electric driveline for chillers</t>
   </si>
   <si>
-    <t>At bathroom upgrades</t>
-  </si>
-  <si>
     <t>caulking and general air stopping</t>
   </si>
   <si>
@@ -231,15 +225,6 @@
     <t>Insulation at TI's</t>
   </si>
   <si>
-    <t>AHU coils, and ASHP hot water for induction systems</t>
-  </si>
-  <si>
-    <t>AHU coils, and elect HW boiler  for induction systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric boiler </t>
-  </si>
-  <si>
     <t>Heating &amp; Cooling &amp; Base</t>
   </si>
   <si>
@@ -271,6 +256,9 @@
   </si>
   <si>
     <t>One Federal</t>
+  </si>
+  <si>
+    <t>Electrificaiton</t>
   </si>
 </sst>
 </file>
@@ -993,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1140,13 +1128,13 @@
     </row>
     <row r="17" spans="1:16" ht="63" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
@@ -1190,16 +1178,16 @@
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>30</v>
@@ -1235,12 +1223,12 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>34</v>
@@ -1285,12 +1273,12 @@
         <v>16</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>32</v>
@@ -1335,12 +1323,12 @@
         <v>16</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>33</v>
@@ -1386,12 +1374,12 @@
         <v>16</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>32</v>
@@ -1403,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>23</v>
@@ -1437,12 +1425,12 @@
         <v>16</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>32</v>
@@ -1454,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>23</v>
@@ -1467,13 +1455,13 @@
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>-0.25</v>
+        <v>3.5</v>
       </c>
       <c r="J23" s="17">
         <v>0</v>
       </c>
       <c r="K23" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="19">
         <v>30</v>
@@ -1488,12 +1476,12 @@
         <v>16</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>33</v>
@@ -1505,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>18</v>
@@ -1544,7 +1532,7 @@
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>34</v>
@@ -1556,7 +1544,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>17</v>
@@ -1595,7 +1583,7 @@
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>34</v>
@@ -1604,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
@@ -1646,7 +1634,7 @@
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>34</v>
@@ -1655,10 +1643,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>18</v>
@@ -1697,7 +1685,7 @@
     </row>
     <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>31</v>
@@ -1709,7 +1697,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>23</v>
@@ -1722,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="17">
-        <v>-0.7</v>
+        <v>2</v>
       </c>
       <c r="J28" s="17">
         <v>0</v>
@@ -1748,7 +1736,7 @@
     </row>
     <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>31</v>
@@ -1760,7 +1748,7 @@
         <v>37</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>23</v>
@@ -1773,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="17">
-        <v>-0.9</v>
+        <v>1.05</v>
       </c>
       <c r="J29" s="17">
         <v>0</v>
@@ -1799,7 +1787,7 @@
     </row>
     <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>31</v>
@@ -1808,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>23</v>
@@ -1823,7 +1811,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="J30" s="17">
         <v>0</v>
@@ -2176,7 +2164,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\NCZ_Interventions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B4317-399F-47CA-9FE1-D39B34556D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Optional add to elevator package</t>
-  </si>
-  <si>
-    <t>Electric driveline for chillers</t>
   </si>
   <si>
     <t>caulking and general air stopping</t>
@@ -992,7 +989,7 @@
   <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1128,13 +1125,13 @@
     </row>
     <row r="17" spans="1:16" ht="63" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
@@ -1178,16 +1175,16 @@
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>30</v>
@@ -1223,12 +1220,12 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>34</v>
@@ -1273,12 +1270,12 @@
         <v>16</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>32</v>
@@ -1323,12 +1320,12 @@
         <v>16</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>33</v>
@@ -1374,12 +1371,12 @@
         <v>16</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>32</v>
@@ -1391,7 +1388,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>23</v>
@@ -1425,12 +1422,12 @@
         <v>16</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>32</v>
@@ -1442,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>23</v>
@@ -1476,12 +1473,12 @@
         <v>16</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>33</v>
@@ -1493,7 +1490,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>18</v>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>34</v>
@@ -1544,7 +1541,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>17</v>
@@ -1583,7 +1580,7 @@
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>34</v>
@@ -1592,10 +1589,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>34</v>
@@ -1643,10 +1640,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>18</v>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>31</v>
@@ -1697,7 +1694,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>23</v>
@@ -1736,7 +1733,7 @@
     </row>
     <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>31</v>
@@ -1748,7 +1745,7 @@
         <v>37</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>23</v>
@@ -1787,7 +1784,7 @@
     </row>
     <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>31</v>
@@ -1796,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>23</v>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\NCZ_Interventions\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5370C6-7089-4064-A0E7-8B7593DCACA4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
@@ -989,34 +989,34 @@
   <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" customWidth="1"/>
-    <col min="5" max="5" width="36.53125" customWidth="1"/>
-    <col min="6" max="6" width="29.46484375" customWidth="1"/>
-    <col min="7" max="7" width="25.53125" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.265625" customWidth="1"/>
-    <col min="11" max="11" width="18.73046875" customWidth="1"/>
-    <col min="12" max="12" width="16.46484375" customWidth="1"/>
-    <col min="13" max="13" width="16.53125" customWidth="1"/>
-    <col min="14" max="14" width="20.19921875" customWidth="1"/>
-    <col min="15" max="15" width="14.73046875" customWidth="1"/>
-    <col min="16" max="16" width="26.19921875" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
@@ -1042,7 +1042,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1051,7 +1051,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1059,7 +1059,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1067,7 +1067,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -1075,7 +1075,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -1083,7 +1083,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1091,7 +1091,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1099,7 +1099,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1107,7 +1107,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1115,7 +1115,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1123,7 +1123,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="17" spans="1:16" ht="63" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="17">
-        <v>-0.25</v>
+        <v>-0.8</v>
       </c>
       <c r="J22" s="17">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>3.5</v>
+        <v>-0.65</v>
       </c>
       <c r="J23" s="17">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="17">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="J28" s="17">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="17">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="17">
-        <v>1.05</v>
+        <v>-0.9</v>
       </c>
       <c r="J30" s="17">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -1847,7 +1847,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -1862,7 +1862,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -1877,7 +1877,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -1892,7 +1892,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="23"/>
     </row>
-    <row r="35" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -1907,7 +1907,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="23"/>
     </row>
-    <row r="36" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -1922,7 +1922,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="23"/>
     </row>
-    <row r="37" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -1937,7 +1937,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="23"/>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1952,7 +1952,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1967,7 +1967,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -1982,7 +1982,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -1997,7 +1997,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2012,7 +2012,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2027,7 +2027,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2042,7 +2042,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
         <v>20</v>
@@ -2059,7 +2059,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
         <v>20</v>
@@ -2078,7 +2078,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2137,29 +2137,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5370C6-7089-4064-A0E7-8B7593DCACA4}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86149B46-50AA-4F35-B82E-D08D9B206A12}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -159,15 +159,6 @@
     <t xml:space="preserve">New Electric Chillers </t>
   </si>
   <si>
-    <t xml:space="preserve">DriveLine Retrofits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Start Stop </t>
-  </si>
-  <si>
-    <t>Chiller Plant Optimization</t>
-  </si>
-  <si>
     <t xml:space="preserve">DHW to Point of Use </t>
   </si>
   <si>
@@ -189,18 +180,6 @@
     <t>Heating &amp; Cooling</t>
   </si>
   <si>
-    <t>Sequence implementation in BMS</t>
-  </si>
-  <si>
-    <t>Analytic Program ontop of BMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric Risistance Coils &amp; ElectricHW Boiler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric Risistance Coils &amp; ASHP </t>
-  </si>
-  <si>
     <t>Optional add to elevator package</t>
   </si>
   <si>
@@ -210,36 +189,15 @@
     <t xml:space="preserve">New High Efficiency Windows </t>
   </si>
   <si>
-    <t>Spandrel and column insulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric Steam Boiler </t>
-  </si>
-  <si>
     <t>New Windows tripple pane R6@30SHG</t>
   </si>
   <si>
-    <t>Insulation at TI's</t>
-  </si>
-  <si>
     <t>Heating &amp; Cooling &amp; Base</t>
   </si>
   <si>
     <t xml:space="preserve">RCx proposals </t>
   </si>
   <si>
-    <t>Controls Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimun Energy </t>
-  </si>
-  <si>
-    <t>Schindler</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
     <t>Retrocommissioning  (RCx)</t>
   </si>
   <si>
@@ -252,10 +210,28 @@
     <t>Building</t>
   </si>
   <si>
-    <t>One Federal</t>
-  </si>
-  <si>
     <t>Electrificaiton</t>
+  </si>
+  <si>
+    <t>160 Spear</t>
+  </si>
+  <si>
+    <t>Electric Boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central ASHP to Hot Water </t>
+  </si>
+  <si>
+    <t>Pneumatic Converstion</t>
+  </si>
+  <si>
+    <t>BMS Expansion</t>
+  </si>
+  <si>
+    <t>Delta Controls</t>
+  </si>
+  <si>
+    <t>Train</t>
   </si>
 </sst>
 </file>
@@ -267,7 +243,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,8 +303,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -543,12 +531,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -594,6 +583,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -621,9 +611,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -687,6 +679,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,54 +982,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
-  <dimension ref="A2:P47"/>
+  <dimension ref="A2:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" customWidth="1"/>
-    <col min="16" max="16" width="26.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="25" t="s">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1042,96 +1038,96 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
@@ -1173,21 +1169,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>52</v>
+      <c r="D18" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>17</v>
@@ -1199,13 +1195,13 @@
         <v>19</v>
       </c>
       <c r="I18" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J18" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="K18" s="17">
         <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0.05</v>
       </c>
       <c r="L18" s="19">
         <v>10</v>
@@ -1220,51 +1216,52 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="18">
-        <v>2</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="20">
-        <v>65000</v>
+        <f>5000*40</f>
+        <v>200000</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I19" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J19" s="17">
         <v>0.01</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>0</v>
       </c>
-      <c r="K19" s="17">
-        <v>0.01</v>
-      </c>
       <c r="L19" s="19">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M19" s="19">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="N19" s="21">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>16</v>
@@ -1273,48 +1270,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="18">
-        <v>3</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G20" s="20">
+        <f>2000*4000</f>
         <v>8000000</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>19</v>
+      <c r="H20" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="17">
-        <v>0.04</v>
+        <v>-0.65</v>
       </c>
       <c r="J20" s="17">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K20" s="17">
         <v>0</v>
       </c>
       <c r="L20" s="19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M20" s="19">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="N20" s="21">
-        <v>5000</v>
+        <v>-25000</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>16</v>
@@ -1323,46 +1321,46 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="18">
-        <v>4</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="20">
-        <f>5000*40</f>
-        <v>200000</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>15</v>
+        <f>38*2*5000</f>
+        <v>380000</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.05</v>
       </c>
       <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
         <v>0</v>
       </c>
-      <c r="K21" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
       <c r="L21" s="19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M21" s="19">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="N21" s="21">
         <v>0</v>
@@ -1371,154 +1369,154 @@
         <v>16</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="18">
-        <v>5</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G22" s="20">
-        <f>2000*1500</f>
-        <v>3000000</v>
-      </c>
-      <c r="H22" s="20" t="s">
+        <f>2000000</f>
+        <v>2000000</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
         <v>15</v>
       </c>
-      <c r="I22" s="17">
-        <v>-0.8</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="M22" s="19">
+        <v>2023</v>
+      </c>
+      <c r="N22" s="21">
         <v>0</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
-        <v>30</v>
-      </c>
-      <c r="M22" s="19">
-        <v>2028</v>
-      </c>
-      <c r="N22" s="21">
-        <v>-10000</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="18">
-        <v>5</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G23" s="20">
-        <f>2000*4000</f>
-        <v>8000000</v>
-      </c>
-      <c r="H23" s="24" t="s">
+        <f>29000000*38/48</f>
+        <v>22958333.333333332</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>-0.65</v>
+        <v>0.06</v>
       </c>
       <c r="J23" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="K23" s="17">
         <v>0</v>
       </c>
-      <c r="K23" s="17">
-        <v>3</v>
-      </c>
       <c r="L23" s="19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M23" s="19">
         <v>2028</v>
       </c>
       <c r="N23" s="21">
-        <v>-25000</v>
+        <v>0</v>
       </c>
       <c r="O23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C24" s="18">
-        <v>6</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G24" s="20">
-        <f>38*2*5000</f>
-        <v>380000</v>
+        <f>3000000+8*150000+1000000</f>
+        <v>5200000</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I24" s="17">
-        <v>-0.05</v>
+        <v>-3.5</v>
       </c>
       <c r="J24" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="K24" s="17">
         <v>0</v>
       </c>
-      <c r="K24" s="17">
-        <v>1</v>
-      </c>
       <c r="L24" s="19">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M24" s="19">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="N24" s="21">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="O24" s="22" t="s">
         <v>16</v>
@@ -1527,49 +1525,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C25" s="18">
-        <v>7</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G25" s="20">
-        <f>2000000</f>
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="17">
-        <v>0.01</v>
+        <v>-0.9</v>
       </c>
       <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
         <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0.01</v>
       </c>
       <c r="L25" s="19">
         <v>15</v>
       </c>
       <c r="M25" s="19">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="N25" s="21">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>16</v>
@@ -1578,46 +1575,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="18">
-        <v>8</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="20">
-        <f>29000000*38/48</f>
-        <v>22958333.333333332</v>
-      </c>
-      <c r="H26" s="20" t="s">
+        <v>230000</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="17">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="J26" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="K26" s="17">
         <v>0</v>
       </c>
-      <c r="K26" s="17">
-        <v>0.06</v>
-      </c>
       <c r="L26" s="19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M26" s="19">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="N26" s="21">
         <v>0</v>
@@ -1626,213 +1622,70 @@
         <v>16</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="18">
-        <v>9</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="20">
-        <f>1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="L27" s="19">
-        <v>15</v>
-      </c>
-      <c r="M27" s="19">
-        <v>2024</v>
-      </c>
-      <c r="N27" s="21">
-        <v>0</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="18">
-        <v>10</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="20">
-        <f>3000000+8*150000+15000000</f>
-        <v>19200000</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="17">
-        <v>-1.5</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
-        <v>1</v>
-      </c>
-      <c r="L28" s="19">
-        <v>40</v>
-      </c>
-      <c r="M28" s="19">
-        <v>2030</v>
-      </c>
-      <c r="N28" s="21">
-        <v>25000</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="18">
-        <v>10</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="20">
-        <f>3000000+8*150000+1000000</f>
-        <v>5200000</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0</v>
-      </c>
-      <c r="K29" s="17">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19">
-        <v>40</v>
-      </c>
-      <c r="M29" s="19">
-        <v>2030</v>
-      </c>
-      <c r="N29" s="21">
-        <v>-10000</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="18">
-        <v>10</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="20">
-        <v>2500000</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="17">
-        <v>-0.9</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
-        <v>1</v>
-      </c>
-      <c r="L30" s="19">
-        <v>15</v>
-      </c>
-      <c r="M30" s="19">
-        <v>2026</v>
-      </c>
-      <c r="N30" s="21">
-        <v>-35000</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -1847,7 +1700,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -1862,82 +1715,82 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1952,7 +1805,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1967,9 +1820,11 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="14"/>
@@ -1982,10 +1837,14 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="14"/>
       <c r="I41" s="10"/>
@@ -1997,111 +1856,46 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="11"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="13"/>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="13"/>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="13"/>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I15"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O42" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H47 F18:F48" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H42 F18:F43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2115,13 +1909,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B43:B48</xm:sqref>
+          <xm:sqref>B38:B43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42EFDDC7-5EBE-43EF-A784-E29354C307F1}">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:B42</xm:sqref>
+          <xm:sqref>B18:B37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2137,31 +1931,31 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86149B46-50AA-4F35-B82E-D08D9B206A12}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33951367-A135-4AD2-A681-5C1F51F79D68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -153,10 +153,58 @@
     <t>Elevator energy revovery</t>
   </si>
   <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Heating &amp; Cooling</t>
+  </si>
+  <si>
+    <t>Optional add to elevator package</t>
+  </si>
+  <si>
+    <t>Heating &amp; Cooling &amp; Base</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Electrificaiton</t>
+  </si>
+  <si>
+    <t>160 Spear</t>
+  </si>
+  <si>
+    <t>Retrocommissioning  (RCx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete BMS commissioning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCx proposals </t>
+  </si>
+  <si>
+    <t>Delta Controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Electric Chillers </t>
+  </si>
+  <si>
     <t>Electrification</t>
   </si>
   <si>
-    <t xml:space="preserve">New Electric Chillers </t>
+    <t>Train</t>
   </si>
   <si>
     <t xml:space="preserve">DHW to Point of Use </t>
@@ -165,24 +213,6 @@
     <t xml:space="preserve">Façade air stopping </t>
   </si>
   <si>
-    <t xml:space="preserve">Complete BMS commissioning </t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Heating &amp; Cooling</t>
-  </si>
-  <si>
-    <t>Optional add to elevator package</t>
-  </si>
-  <si>
     <t>caulking and general air stopping</t>
   </si>
   <si>
@@ -192,46 +222,22 @@
     <t>New Windows tripple pane R6@30SHG</t>
   </si>
   <si>
-    <t>Heating &amp; Cooling &amp; Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCx proposals </t>
-  </si>
-  <si>
-    <t>Retrocommissioning  (RCx)</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Electrificaiton</t>
-  </si>
-  <si>
-    <t>160 Spear</t>
+    <t xml:space="preserve">Central ASHP to Hot Water </t>
   </si>
   <si>
     <t>Electric Boiler</t>
   </si>
   <si>
-    <t xml:space="preserve">Central ASHP to Hot Water </t>
-  </si>
-  <si>
     <t>Pneumatic Converstion</t>
   </si>
   <si>
     <t>BMS Expansion</t>
   </si>
   <si>
-    <t>Delta Controls</t>
-  </si>
-  <si>
-    <t>Train</t>
+    <t>Chiller Plant</t>
+  </si>
+  <si>
+    <t>Schindler</t>
   </si>
 </sst>
 </file>
@@ -531,13 +537,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -611,11 +616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -982,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
-  <dimension ref="A2:P50"/>
+  <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,13 +1124,13 @@
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
@@ -1171,25 +1174,25 @@
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="20">
-        <v>9000000</v>
+        <v>35000</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>19</v>
@@ -1216,15 +1219,15 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" s="18">
         <v>7</v>
@@ -1233,14 +1236,13 @@
         <v>22</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="20">
-        <f>5000*40</f>
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>15</v>
@@ -1267,40 +1269,39 @@
         <v>16</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="18">
         <v>5</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G20" s="20">
-        <f>2000*4000</f>
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="17">
-        <v>-0.65</v>
+        <v>0.8</v>
       </c>
       <c r="J20" s="17">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K20" s="17">
         <v>0</v>
@@ -1318,40 +1319,39 @@
         <v>16</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" s="18">
         <v>2</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G21" s="20">
-        <f>38*2*5000</f>
-        <v>380000</v>
+        <v>85000</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I21" s="17">
-        <v>-0.05</v>
+        <v>-1</v>
       </c>
       <c r="J21" s="17">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K21" s="17">
         <v>0</v>
@@ -1372,37 +1372,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="18">
         <v>3</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="20">
-        <f>2000000</f>
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J22" s="17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K22" s="17">
         <v>0</v>
@@ -1425,35 +1424,34 @@
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C23" s="18">
         <v>4</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="20">
-        <f>29000000*38/48</f>
-        <v>22958333.333333332</v>
+        <v>10000000</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="J23" s="17">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K23" s="17">
         <v>0</v>
@@ -1476,26 +1474,25 @@
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="18">
         <v>8</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G24" s="20">
-        <f>3000000+8*150000+1000000</f>
-        <v>5200000</v>
+        <v>2750000</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>15</v>
@@ -1504,7 +1501,7 @@
         <v>-3.5</v>
       </c>
       <c r="J24" s="17">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="K24" s="17">
         <v>0</v>
@@ -1527,34 +1524,34 @@
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" s="18">
         <v>8</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G25" s="20">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I25" s="17">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="J25" s="17">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K25" s="17">
         <v>0</v>
@@ -1577,19 +1574,19 @@
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C26" s="18">
         <v>6</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
@@ -1604,7 +1601,7 @@
         <v>0.01</v>
       </c>
       <c r="J26" s="17">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="K26" s="17">
         <v>0</v>
@@ -1622,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1715,7 +1712,10 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1730,7 +1730,10 @@
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1745,7 +1748,10 @@
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1760,7 +1766,10 @@
       <c r="O35" s="12"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1775,7 +1784,10 @@
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1790,7 +1802,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1805,7 +1817,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1820,7 +1832,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -1837,7 +1849,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
         <v>20</v>
@@ -1856,7 +1868,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1871,20 +1883,86 @@
       <c r="O42" s="12"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="35"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50" s="35"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1892,10 +1970,10 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O42" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H42 F18:F43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H47 F18:F48 B18:B42" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1904,18 +1982,12 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F74E3BBC-93B3-4149-AA4B-B052653A51FA}">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B38:B43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42EFDDC7-5EBE-43EF-A784-E29354C307F1}">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B18:B37</xm:sqref>
+          <xm:sqref>B43:B48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1935,27 +2007,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33951367-A135-4AD2-A681-5C1F51F79D68}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4964BC3-6BA4-4AD6-BAFD-64FA55A932AD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
   <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:P47"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1477,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="18">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" s="18">
         <v>8</v>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4964BC3-6BA4-4AD6-BAFD-64FA55A932AD}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81E830E9-B8D5-413E-832E-85645EE86B43}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -183,61 +183,73 @@
     <t>Electrificaiton</t>
   </si>
   <si>
-    <t>160 Spear</t>
-  </si>
-  <si>
-    <t>Retrocommissioning  (RCx)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete BMS commissioning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCx proposals </t>
-  </si>
-  <si>
-    <t>Delta Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Electric Chillers </t>
-  </si>
-  <si>
-    <t>Electrification</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHW to Point of Use </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Façade air stopping </t>
-  </si>
-  <si>
-    <t>caulking and general air stopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New High Efficiency Windows </t>
-  </si>
-  <si>
-    <t>New Windows tripple pane R6@30SHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central ASHP to Hot Water </t>
-  </si>
-  <si>
-    <t>Electric Boiler</t>
-  </si>
-  <si>
-    <t>Pneumatic Converstion</t>
-  </si>
-  <si>
-    <t>BMS Expansion</t>
-  </si>
-  <si>
-    <t>Chiller Plant</t>
-  </si>
-  <si>
     <t>Schindler</t>
+  </si>
+  <si>
+    <t>333 Bush</t>
+  </si>
+  <si>
+    <t>Window Retrofit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New window film </t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevator Mod with energy recovery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating Electrification via ASHP's </t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Back of house lighting</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Water soruced heat recovery</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Chiller end of life replacement</t>
+  </si>
+  <si>
+    <t>Chiller plan replacement</t>
+  </si>
+  <si>
+    <t>Chiller plant optimization</t>
+  </si>
+  <si>
+    <t>Controls with  ML program</t>
+  </si>
+  <si>
+    <t>Optimun Start / Stop</t>
+  </si>
+  <si>
+    <t>Airside energy  recovery</t>
+  </si>
+  <si>
+    <t>Run Arouind Coils</t>
+  </si>
+  <si>
+    <t>Pumping Optizamation</t>
+  </si>
+  <si>
+    <t>VFD's Controls with  ML program</t>
+  </si>
+  <si>
+    <t>Limited Façade Air Stopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulation and wet sealing </t>
   </si>
 </sst>
 </file>
@@ -316,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,12 +358,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -542,7 +548,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -588,7 +594,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -988,7 +993,7 @@
   <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,23 +1021,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1043,84 +1048,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1174,25 +1179,25 @@
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="20">
-        <v>35000</v>
+        <v>750000</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>19</v>
@@ -1201,16 +1206,16 @@
         <v>0.02</v>
       </c>
       <c r="J18" s="17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K18" s="17">
         <v>0</v>
       </c>
       <c r="L18" s="19">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M18" s="19">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="N18" s="21">
         <v>0</v>
@@ -1219,39 +1224,40 @@
         <v>16</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="18">
-        <v>7</v>
-      </c>
-      <c r="D19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="20">
-        <v>120000</v>
+        <f>12*20000</f>
+        <v>240000</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I19" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J19" s="17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K19" s="17">
         <v>0</v>
@@ -1269,51 +1275,51 @@
         <v>16</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18">
-        <v>5</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G20" s="20">
-        <v>650000</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>15</v>
+        <v>8000000</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I20" s="17">
+        <v>-3.5</v>
+      </c>
+      <c r="J20" s="17">
         <v>0.8</v>
       </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
       <c r="K20" s="17">
         <v>0</v>
       </c>
       <c r="L20" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M20" s="19">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="N20" s="21">
-        <v>-25000</v>
+        <v>24000</v>
       </c>
       <c r="O20" s="22" t="s">
         <v>16</v>
@@ -1324,34 +1330,34 @@
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="18">
-        <v>2</v>
-      </c>
-      <c r="D21" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G21" s="20">
-        <v>85000</v>
-      </c>
-      <c r="H21" s="24" t="s">
+        <v>80000</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="17">
-        <v>-1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J21" s="17">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K21" s="17">
         <v>0</v>
@@ -1369,98 +1375,98 @@
         <v>16</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="18">
-        <v>3</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G22" s="20">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>19</v>
+        <v>300000</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="17">
-        <v>0.05</v>
+        <v>-3.5</v>
       </c>
       <c r="J22" s="17">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="K22" s="17">
         <v>0</v>
       </c>
       <c r="L22" s="19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M22" s="19">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="N22" s="21">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="18">
-        <v>4</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="20">
-        <v>10000000</v>
-      </c>
-      <c r="H23" s="20" t="s">
+        <v>2500000</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="J23" s="17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K23" s="17">
         <v>0</v>
       </c>
       <c r="L23" s="19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M23" s="19">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="N23" s="21">
         <v>0</v>
@@ -1469,51 +1475,51 @@
         <v>16</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="18">
-        <v>8</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G24" s="20">
-        <v>2750000</v>
+        <v>60000</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I24" s="17">
-        <v>-3.5</v>
+        <v>0.1</v>
       </c>
       <c r="J24" s="17">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="K24" s="17">
         <v>0</v>
       </c>
       <c r="L24" s="19">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M24" s="19">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="N24" s="21">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O24" s="22" t="s">
         <v>16</v>
@@ -1524,46 +1530,46 @@
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="18">
-        <v>8</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G25" s="20">
-        <v>1500000</v>
+        <v>118000</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I25" s="17">
-        <v>-1</v>
+        <v>0.05</v>
       </c>
       <c r="J25" s="17">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="K25" s="17">
         <v>0</v>
       </c>
       <c r="L25" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M25" s="19">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="N25" s="21">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>16</v>
@@ -1574,43 +1580,43 @@
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="18">
-        <v>6</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="20">
-        <v>230000</v>
-      </c>
-      <c r="H26" s="24" t="s">
+        <v>850000</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="17">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J26" s="17">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K26" s="17">
         <v>0</v>
       </c>
       <c r="L26" s="19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M26" s="19">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="N26" s="21">
         <v>0</v>
@@ -1619,38 +1625,108 @@
         <v>16</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="20">
+        <v>225000</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>12</v>
+      </c>
+      <c r="M27" s="19">
+        <v>2024</v>
+      </c>
+      <c r="N27" s="21">
+        <v>0</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="20">
+        <v>2250000</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <v>40</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2030</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="19"/>
@@ -1713,76 +1789,64 @@
       <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="13"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
@@ -1969,11 +2033,17 @@
     <mergeCell ref="D4:I15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H47 F18:F48 B18:B42" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:F48 B37:B42 H37:H47" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H36 F18:F36 E20 E22" xr:uid="{2C330609-2B93-4BED-A38D-1FFEB67B49CF}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O36" xr:uid="{FCE7D597-7141-494F-9029-57748E98DC6F}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81E830E9-B8D5-413E-832E-85645EE86B43}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C86EDB1-4DB5-47CF-AE13-177D94571702}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -129,10 +129,82 @@
     <t>Sources (Citations, Links, Consulting Reports, etc.)</t>
   </si>
   <si>
-    <t>Capex</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Elevator energy revovery</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Heating &amp; Cooling</t>
+  </si>
+  <si>
+    <t>Optional add to elevator package</t>
+  </si>
+  <si>
+    <t>Heating &amp; Cooling &amp; Base</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Electrificaiton</t>
+  </si>
+  <si>
+    <t>160 Spear</t>
+  </si>
+  <si>
+    <t>Retrocommissioning  (RCx)</t>
+  </si>
+  <si>
+    <t>caulking and general air stopping</t>
+  </si>
+  <si>
+    <t>New Windows tripple pane R6@30SHG</t>
+  </si>
+  <si>
+    <t>Chiller Plant</t>
+  </si>
+  <si>
+    <t>Pneumatic Converstion</t>
+  </si>
+  <si>
+    <t>BMS Expansion</t>
+  </si>
+  <si>
+    <t>Electric Boiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Electric Chillers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHW to Point of Use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Façade air stopping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New High Efficiency Windows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central ASHP to Hot Water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete BMS commissioning </t>
   </si>
   <si>
     <t>Retrofit</t>
@@ -141,115 +213,16 @@
     <t>Capital Project Enhancement</t>
   </si>
   <si>
-    <t>R&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Eng</t>
-  </si>
-  <si>
-    <t>Elevator energy revovery</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Heating &amp; Cooling</t>
-  </si>
-  <si>
-    <t>Optional add to elevator package</t>
-  </si>
-  <si>
-    <t>Heating &amp; Cooling &amp; Base</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Electrificaiton</t>
-  </si>
-  <si>
-    <t>Schindler</t>
-  </si>
-  <si>
-    <t>333 Bush</t>
-  </si>
-  <si>
-    <t>Window Retrofit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New window film </t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elevator Mod with energy recovery </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating Electrification via ASHP's </t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>Back of house lighting</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Water soruced heat recovery</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
-    <t>Chiller end of life replacement</t>
-  </si>
-  <si>
-    <t>Chiller plan replacement</t>
-  </si>
-  <si>
-    <t>Chiller plant optimization</t>
-  </si>
-  <si>
-    <t>Controls with  ML program</t>
-  </si>
-  <si>
-    <t>Optimun Start / Stop</t>
-  </si>
-  <si>
-    <t>Airside energy  recovery</t>
-  </si>
-  <si>
-    <t>Run Arouind Coils</t>
-  </si>
-  <si>
-    <t>Pumping Optizamation</t>
-  </si>
-  <si>
-    <t>VFD's Controls with  ML program</t>
-  </si>
-  <si>
-    <t>Limited Façade Air Stopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insulation and wet sealing </t>
+    <t>Electrification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R&amp;M </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capex </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -   </t>
   </si>
 </sst>
 </file>
@@ -992,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,13 +1102,13 @@
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
@@ -1179,554 +1152,395 @@
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="18">
-        <v>8</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="20">
-        <v>750000</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19">
-        <v>35</v>
-      </c>
-      <c r="M18" s="19">
-        <v>2030</v>
-      </c>
-      <c r="N18" s="21">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>35000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>0.04</v>
+      </c>
+      <c r="J18">
+        <v>0.04</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="18">
-        <v>10</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="20">
-        <f>12*20000</f>
-        <v>240000</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="17">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>120000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19">
         <v>0.01</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="17">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>25</v>
-      </c>
-      <c r="M19" s="19">
-        <v>2035</v>
-      </c>
-      <c r="N19" s="21">
-        <v>0</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="20">
-        <v>8000000</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="17">
-        <v>-3.5</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="K20" s="17">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>650000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="L20" s="19">
-        <v>20</v>
-      </c>
-      <c r="M20" s="19">
-        <v>2035</v>
-      </c>
-      <c r="N20" s="21">
-        <v>24000</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C21" s="18">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="20">
-        <v>80000</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19">
-        <v>12</v>
-      </c>
-      <c r="M21" s="19">
-        <v>2024</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>85000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="18">
-        <v>7</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="20">
-        <v>300000</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="17">
-        <v>-3.5</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="17">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19">
-        <v>25</v>
-      </c>
-      <c r="M22" s="19">
-        <v>2027</v>
-      </c>
-      <c r="N22" s="21">
-        <v>6000</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22">
+        <v>1000000</v>
+      </c>
+      <c r="H22" t="s">
         <v>44</v>
       </c>
+      <c r="I22">
+        <v>0.02</v>
+      </c>
+      <c r="J22">
+        <v>0.02</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="18">
-        <v>9</v>
-      </c>
-      <c r="D23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>10000000</v>
+      </c>
+      <c r="H23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <v>0.05</v>
+      </c>
+      <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="20">
-        <v>2500000</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
-        <v>25</v>
-      </c>
-      <c r="M23" s="19">
-        <v>2030</v>
-      </c>
-      <c r="N23" s="21">
-        <v>0</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="L23"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="18">
-        <v>6</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="20">
-        <v>60000</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19">
-        <v>12</v>
-      </c>
-      <c r="M24" s="19">
-        <v>2024</v>
-      </c>
-      <c r="N24" s="21">
-        <v>0</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>21</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <v>2750000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="18">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="18">
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25">
+        <v>1500000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="20">
-        <v>118000</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-      <c r="L25" s="19">
-        <v>12</v>
-      </c>
-      <c r="M25" s="19">
-        <v>2024</v>
-      </c>
-      <c r="N25" s="21">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C26" s="18">
-        <v>5</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="20">
-        <v>850000</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="17">
-        <v>0</v>
-      </c>
-      <c r="L26" s="19">
-        <v>30</v>
-      </c>
-      <c r="M26" s="19">
-        <v>2024</v>
-      </c>
-      <c r="N26" s="21">
-        <v>0</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>230000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>0.02</v>
+      </c>
+      <c r="J26">
+        <v>0.02</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="18">
-        <v>2</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="20">
-        <v>225000</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="K27" s="17">
-        <v>0</v>
-      </c>
-      <c r="L27" s="19">
-        <v>12</v>
-      </c>
-      <c r="M27" s="19">
-        <v>2024</v>
-      </c>
-      <c r="N27" s="21">
-        <v>0</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="A27"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="18">
-        <v>4</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="20">
-        <v>2250000</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="K28" s="17">
-        <v>0</v>
-      </c>
-      <c r="L28" s="19">
-        <v>40</v>
-      </c>
-      <c r="M28" s="19">
-        <v>2030</v>
-      </c>
-      <c r="N28" s="21">
-        <v>0</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="A28"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="19"/>
@@ -1899,7 +1713,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
@@ -1916,10 +1730,10 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="14"/>
@@ -1980,7 +1794,7 @@
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
@@ -1997,10 +1811,10 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="14"/>
@@ -2033,17 +1847,11 @@
     <mergeCell ref="D4:I15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:F48 B37:B42 H37:H47" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H36 F18:F36 E20 E22" xr:uid="{2C330609-2B93-4BED-A38D-1FFEB67B49CF}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O36" xr:uid="{FCE7D597-7141-494F-9029-57748E98DC6F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B42 O18:O36 F27:F48 H27:H47 B18:B26" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2077,27 +1885,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C86EDB1-4DB5-47CF-AE13-177D94571702}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740ADD58-150A-44D6-A033-E39E3A5AD394}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="30075" yWindow="1500" windowWidth="21600" windowHeight="11325" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t>Test Name</t>
   </si>
 </sst>
 </file>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1398,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C24" s="18">
         <v>8</v>
@@ -1435,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" s="18">
         <v>8</v>
@@ -1511,15 +1514,39 @@
       <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <v>1000000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="21"/>
@@ -1851,7 +1878,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B42 O18:O36 F27:F48 H27:H47 B18:B26" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B42 O18:O36 H28:H47 F28:F48 B18:B27" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740ADD58-150A-44D6-A033-E39E3A5AD394}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E074C01C-FF28-410A-9EC8-EC4CD79567CB}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="1500" windowWidth="21600" windowHeight="11325" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
@@ -665,14 +665,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,7 +706,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -816,7 +812,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -958,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,35 +964,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1002,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
@@ -1022,7 +1018,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1031,7 +1027,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1039,7 +1035,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1047,7 +1043,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -1055,7 +1051,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -1063,7 +1059,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1071,7 +1067,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1079,7 +1075,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1087,7 +1083,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1095,7 +1091,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1103,7 +1099,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1189,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1233,7 +1229,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
     </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1269,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="23"/>
     </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1299,10 +1295,10 @@
         <v>45</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
@@ -1313,7 +1309,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
     </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1349,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="23"/>
     </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1389,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="23"/>
     </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1429,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="23"/>
     </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1473,7 +1469,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="23"/>
     </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1513,7 +1509,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="23"/>
     </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1553,7 +1549,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="23"/>
     </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -1569,7 +1565,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="23"/>
     </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -1584,7 +1580,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="23"/>
     </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -1599,7 +1595,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="23"/>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -1614,7 +1610,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -1629,7 +1625,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -1644,7 +1640,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -1659,7 +1655,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="23"/>
     </row>
-    <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -1674,7 +1670,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="23"/>
     </row>
-    <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -1689,7 +1685,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="23"/>
     </row>
-    <row r="37" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1707,7 +1703,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1722,7 +1718,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1737,7 +1733,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
         <v>15</v>
@@ -1754,7 +1750,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
         <v>15</v>
@@ -1773,7 +1769,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -1788,7 +1784,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1803,7 +1799,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1818,7 +1814,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
         <v>15</v>
@@ -1835,7 +1831,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
         <v>15</v>
@@ -1854,7 +1850,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -1908,29 +1904,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E074C01C-FF28-410A-9EC8-EC4CD79567CB}"/>
+  <xr:revisionPtr revIDLastSave="513" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69741B01-9291-4A37-906D-169D3CB8B58E}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16920" windowHeight="10540" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -162,70 +162,100 @@
     <t>Building</t>
   </si>
   <si>
-    <t>Electrificaiton</t>
-  </si>
-  <si>
-    <t>160 Spear</t>
-  </si>
-  <si>
     <t>Retrocommissioning  (RCx)</t>
   </si>
   <si>
     <t>caulking and general air stopping</t>
   </si>
   <si>
-    <t>New Windows tripple pane R6@30SHG</t>
-  </si>
-  <si>
-    <t>Chiller Plant</t>
-  </si>
-  <si>
-    <t>Pneumatic Converstion</t>
-  </si>
-  <si>
-    <t>BMS Expansion</t>
-  </si>
-  <si>
-    <t>Electric Boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Electric Chillers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHW to Point of Use </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Façade air stopping </t>
-  </si>
-  <si>
     <t xml:space="preserve">New High Efficiency Windows </t>
   </si>
   <si>
-    <t xml:space="preserve">Central ASHP to Hot Water </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete BMS commissioning </t>
-  </si>
-  <si>
     <t>Retrofit</t>
   </si>
   <si>
     <t>Capital Project Enhancement</t>
   </si>
   <si>
-    <t>Electrification</t>
-  </si>
-  <si>
     <t xml:space="preserve"> R&amp;M </t>
   </si>
   <si>
     <t xml:space="preserve"> Capex </t>
   </si>
   <si>
-    <t xml:space="preserve"> -   </t>
-  </si>
-  <si>
-    <t>Test Name</t>
+    <t>222 N LaSalle</t>
+  </si>
+  <si>
+    <t>Retrofit + Training</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat recovery for  winter operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology enablement  - Access control Converge Network People counters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof replacment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POU hot water heaters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Façade / Window air stopping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement ECMs from ComEd report </t>
+  </si>
+  <si>
+    <t>EOL replacement adding insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Project </t>
+  </si>
+  <si>
+    <t>BMS Expansion and optimizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW Pumping VFD Retrofit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add FVD's to CHW and CW pumps </t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHU Recovery coils for OA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan powered box retrofit </t>
+  </si>
+  <si>
+    <t>Add DDC, ECM Motors and sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New High Efficiency Electric 1300ton  Chiller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooftop solar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restroom DHW POU with planed refresh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Eff Windows </t>
+  </si>
+  <si>
+    <t>Chiller EOL Replacement</t>
+  </si>
+  <si>
+    <t>Chiller and AHU Optimizations</t>
   </si>
 </sst>
 </file>
@@ -663,6 +693,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,37 +996,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
-  <dimension ref="A2:P47"/>
+  <dimension ref="A2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" customWidth="1"/>
-    <col min="16" max="16" width="26.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1036,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
@@ -1018,7 +1052,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1027,7 +1061,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1035,7 +1069,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1043,7 +1077,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -1051,7 +1085,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -1059,7 +1093,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1067,7 +1101,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1075,7 +1109,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1083,7 +1117,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1091,7 +1125,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1099,7 +1133,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1149,454 +1183,568 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>27</v>
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18">
-        <v>35000</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="20">
+        <v>48000</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="19">
+        <v>10</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I18">
-        <v>0.04</v>
-      </c>
-      <c r="J18">
-        <v>0.04</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="18">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19">
-        <v>120000</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19">
-        <v>0.01</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="20">
+        <f>48660+2000000+35000</f>
+        <v>2083660</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="17">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19"/>
-      <c r="M19" s="19"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19">
+        <v>15</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2025</v>
+      </c>
       <c r="N19" s="21"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
+      <c r="P19" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="20">
+        <f>50000*4+12*25000</f>
+        <v>500000</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="19">
+        <v>15</v>
+      </c>
+      <c r="M20" s="19">
+        <v>2026</v>
+      </c>
+      <c r="N20" s="21">
+        <v>-15000</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="18">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20">
-        <v>650000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20">
-        <v>0.1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="C21" s="18">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L20"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="18">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21">
-        <v>85000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21">
-        <v>0.5</v>
-      </c>
-      <c r="J21">
-        <v>-0.5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="20">
+        <v>275000</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="19">
+        <v>20</v>
+      </c>
+      <c r="M21" s="19">
+        <v>2025</v>
+      </c>
       <c r="N21" s="21"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
+      <c r="P21" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="18">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22">
-        <v>1000000</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22">
-        <v>0.02</v>
-      </c>
-      <c r="J22">
-        <v>0.02</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="20">
+        <f>1200000/1000*2400</f>
+        <v>2880000</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="19">
+        <v>20</v>
+      </c>
+      <c r="M22" s="19">
+        <v>2028</v>
+      </c>
       <c r="N22" s="21"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
+      <c r="P22" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="18">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23">
-        <v>10000000</v>
-      </c>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23">
-        <v>0.05</v>
-      </c>
-      <c r="J23">
-        <v>0.05</v>
-      </c>
-      <c r="K23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1300000</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="19">
+        <v>15</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2025</v>
+      </c>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
-    </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
+      <c r="P23" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="18">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24">
-        <v>2750000</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>-1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="20">
+        <v>120000</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="19">
+        <v>20</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2025</v>
+      </c>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>27</v>
+      <c r="P24" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="18">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G25">
-        <v>1500000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>-1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="20">
+        <f>39790*200</f>
+        <v>7958000</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="19">
+        <v>35</v>
+      </c>
+      <c r="M25" s="19">
+        <v>2029</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-    </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
+      <c r="P25" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="18">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="20">
+        <v>400000</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26">
-        <v>230000</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26">
-        <v>0.02</v>
-      </c>
-      <c r="J26">
-        <v>0.02</v>
-      </c>
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26" s="19"/>
+      <c r="I26" s="17">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="19">
+        <v>25</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2030</v>
+      </c>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="P26" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C27" s="18">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27">
-        <v>1000000</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>-1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+        <v>9.1</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="20">
+        <f>3500*2*28</f>
+        <v>196000</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="19">
+        <v>15</v>
+      </c>
+      <c r="M27" s="19">
+        <v>2025</v>
+      </c>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-    </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="17"/>
+      <c r="P27" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="20">
+        <f>6*350000</f>
+        <v>2100000</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="19">
+        <v>35</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2025</v>
+      </c>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-    </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="17"/>
+      <c r="P28" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="20">
+        <v>54100000</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0.05</v>
+      </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="19">
+        <v>40</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2035</v>
+      </c>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-    </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="17"/>
+      <c r="P29" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="20">
+        <f>1300*1500</f>
+        <v>1950000</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0.1</v>
+      </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="19">
+        <v>35</v>
+      </c>
+      <c r="M30" s="19">
+        <v>2030</v>
+      </c>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="19"/>
+      <c r="P30" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
@@ -1610,7 +1758,10 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -1625,7 +1776,10 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -1640,58 +1794,65 @@
       <c r="O33" s="22"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G37" s="9"/>
       <c r="H37" s="14"/>
       <c r="I37" s="10"/>
@@ -1703,22 +1864,24 @@
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="11"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1733,11 +1896,10 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="14"/>
@@ -1750,14 +1912,13 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="9"/>
       <c r="H41" s="14"/>
       <c r="I41" s="10"/>
@@ -1769,112 +1930,55 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="15"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="16"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="11"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="13"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="13"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="16"/>
+      <c r="P43" s="16"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:P30">
+    <sortCondition ref="C18:C30"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="D4:I15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O47" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F31:F44 H26 H31:H43 O18:O33 F28" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B42 O18:O36 H28:H47 F28:F48 B18:B27" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1883,12 +1987,18 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F74E3BBC-93B3-4149-AA4B-B052653A51FA}">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B43:B48</xm:sqref>
+          <xm:sqref>B44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D12C665F-453A-4F1E-8EAE-C130CC2C9B89}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B18:B43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1900,33 +2010,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2E54ED-FA3E-404F-B8C1-A4273C92F2A2}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="513" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69741B01-9291-4A37-906D-169D3CB8B58E}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A830BAA2-707C-4E9E-A3DC-014EF5346A53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="222 Second" sheetId="3" r:id="rId3"/>
+    <sheet name="160 Spear" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$27</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -183,89 +185,132 @@
     <t xml:space="preserve"> Capex </t>
   </si>
   <si>
-    <t>222 N LaSalle</t>
+    <t xml:space="preserve">Complete BMS commissioning </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Electric Chillers </t>
+  </si>
+  <si>
+    <t>Chiller Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHW to Point of Use </t>
+  </si>
+  <si>
+    <t>Electrificaiton</t>
+  </si>
+  <si>
+    <t>Electrification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Façade air stopping </t>
+  </si>
+  <si>
+    <t>New Windows tripple pane R6@30SHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central ASHP to Hot Water </t>
+  </si>
+  <si>
+    <t>Electric Boiler</t>
+  </si>
+  <si>
+    <t>Pneumatic Converstion</t>
+  </si>
+  <si>
+    <t>BMS Expansion</t>
+  </si>
+  <si>
+    <t>160 Spear</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement ECMs from ComEd report </t>
   </si>
   <si>
     <t>Retrofit + Training</t>
   </si>
   <si>
-    <t>Engineering</t>
+    <t xml:space="preserve">Technology enablement  - Access control Converge Network People counters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Project </t>
+  </si>
+  <si>
+    <t>BMS Expansion and optimizations</t>
+  </si>
+  <si>
+    <t>Chiller plant instrumentation</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW Pumping VFD Retrofit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add FVD's to CHW and CW pumps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan powered box retrofit </t>
+  </si>
+  <si>
+    <t>Add DDC, ECM Motors and sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Façade / Window air stopping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof replacment </t>
+  </si>
+  <si>
+    <t>EOL replacement adding insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooftop solar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POU hot water heaters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restroom DHW POU with planed refresh </t>
   </si>
   <si>
     <t xml:space="preserve">Heat recovery for  winter operation </t>
   </si>
   <si>
-    <t xml:space="preserve">Technology enablement  - Access control Converge Network People counters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roof replacment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POU hot water heaters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Façade / Window air stopping </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement ECMs from ComEd report </t>
-  </si>
-  <si>
-    <t>EOL replacement adding insulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Project </t>
-  </si>
-  <si>
-    <t>BMS Expansion and optimizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW Pumping VFD Retrofit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add FVD's to CHW and CW pumps </t>
-  </si>
-  <si>
-    <t>Capex</t>
-  </si>
-  <si>
     <t xml:space="preserve">AHU Recovery coils for OA </t>
   </si>
   <si>
-    <t xml:space="preserve">Fan powered box retrofit </t>
-  </si>
-  <si>
-    <t>Add DDC, ECM Motors and sensors</t>
+    <t xml:space="preserve">High Eff Windows </t>
   </si>
   <si>
     <t xml:space="preserve">New High Efficiency Electric 1300ton  Chiller </t>
   </si>
   <si>
-    <t xml:space="preserve">Rooftop solar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restroom DHW POU with planed refresh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Eff Windows </t>
-  </si>
-  <si>
     <t>Chiller EOL Replacement</t>
   </si>
   <si>
-    <t>Chiller and AHU Optimizations</t>
+    <t>222 Second Street</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -554,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -627,6 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -998,35 +1044,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1082,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5"/>
       <c r="D5" s="28"/>
       <c r="E5" s="29"/>
@@ -1052,7 +1098,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1061,7 +1107,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -1069,7 +1115,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -1077,7 +1123,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -1085,7 +1131,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -1093,7 +1139,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1101,7 +1147,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1109,7 +1155,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1117,7 +1163,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1125,7 +1171,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1133,7 +1179,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1183,9 +1229,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>33</v>
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>20</v>
@@ -1197,39 +1243,27 @@
         <v>26</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="20">
-        <v>48000</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="19">
-        <v>10</v>
-      </c>
-      <c r="M18" s="19">
-        <v>2025</v>
-      </c>
-      <c r="N18" s="21">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18">
+        <v>0.04</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>33</v>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>22</v>
@@ -1238,39 +1272,28 @@
         <v>2</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="20">
-        <f>48660+2000000+35000</f>
-        <v>2083660</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="17">
+        <v>51</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="19">
-        <v>15</v>
-      </c>
-      <c r="M19" s="19">
-        <v>2025</v>
-      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="21"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>33</v>
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>20</v>
@@ -1279,43 +1302,30 @@
         <v>3</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="20">
-        <f>50000*4+12*25000</f>
-        <v>500000</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="19">
-        <v>15</v>
-      </c>
-      <c r="M20" s="19">
-        <v>2026</v>
-      </c>
-      <c r="N20" s="21">
-        <v>-15000</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20">
+        <v>0.03</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>33</v>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>18</v>
@@ -1324,40 +1334,30 @@
         <v>4</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="20">
-        <v>275000</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="19">
-        <v>20</v>
-      </c>
-      <c r="M21" s="19">
-        <v>2025</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21">
+        <v>0.02</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="21"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>33</v>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>71</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>20</v>
@@ -1366,41 +1366,30 @@
         <v>5</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="20">
-        <f>1200000/1000*2400</f>
-        <v>2880000</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="19">
-        <v>20</v>
-      </c>
-      <c r="M22" s="19">
-        <v>2028</v>
-      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="21"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>33</v>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>71</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>20</v>
@@ -1409,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>27</v>
@@ -1417,32 +1406,22 @@
       <c r="F23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="20">
-        <v>1300000</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="19">
-        <v>15</v>
-      </c>
-      <c r="M23" s="19">
-        <v>2025</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23">
+        <v>0.02</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>33</v>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>71</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>19</v>
@@ -1459,32 +1438,22 @@
       <c r="F24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="20">
-        <v>120000</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="19">
-        <v>20</v>
-      </c>
-      <c r="M24" s="19">
-        <v>2025</v>
-      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24">
+        <v>1E-3</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" s="19"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>33</v>
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>71</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>20</v>
@@ -1493,41 +1462,30 @@
         <v>8</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="20">
-        <f>39790*200</f>
-        <v>7958000</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="19">
-        <v>35</v>
-      </c>
-      <c r="M25" s="19">
-        <v>2029</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25">
+        <v>1E-4</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>33</v>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>71</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>19</v>
@@ -1536,40 +1494,30 @@
         <v>9</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="20">
-        <v>400000</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="19">
-        <v>25</v>
-      </c>
-      <c r="M26" s="19">
-        <v>2030</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26">
+        <v>0.01</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>33</v>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -1578,41 +1526,30 @@
         <v>9.1</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="20">
-        <f>3500*2*28</f>
-        <v>196000</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="19">
-        <v>15</v>
-      </c>
-      <c r="M27" s="19">
-        <v>2025</v>
-      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27">
+        <v>0.3</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>33</v>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>17</v>
@@ -1621,41 +1558,30 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="20">
-        <f>6*350000</f>
-        <v>2100000</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>32</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="19">
-        <v>35</v>
-      </c>
-      <c r="M28" s="19">
-        <v>2025</v>
-      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>33</v>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>71</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>20</v>
@@ -1667,37 +1593,27 @@
         <v>28</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="20">
-        <v>54100000</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>32</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="17">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="19">
-        <v>40</v>
-      </c>
-      <c r="M29" s="19">
-        <v>2035</v>
-      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>33</v>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>18</v>
@@ -1706,45 +1622,29 @@
         <v>9.4</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="20">
-        <f>1300*1500</f>
-        <v>1950000</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="19">
-        <v>35</v>
-      </c>
-      <c r="M30" s="19">
-        <v>2030</v>
-      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
@@ -1758,7 +1658,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="18" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1676,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="18" t="s">
         <v>15</v>
       </c>
@@ -1794,7 +1694,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="23"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1810,7 +1710,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1826,7 +1726,7 @@
       <c r="O35" s="12"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
@@ -1844,7 +1744,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="18"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
@@ -1864,7 +1764,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1880,7 +1780,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="18"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1896,7 +1796,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="18"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1912,7 +1812,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="18"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
@@ -1930,7 +1830,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="18"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
@@ -1950,7 +1850,7 @@
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="18"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1974,11 +1874,14 @@
     <mergeCell ref="D4:I15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F31:F44 H26 H31:H43 O18:O33 F28" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O28:O33 F31:F44 H31:H43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43 O18:O27" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F28" xr:uid="{9CCA73AF-A232-458D-A6A6-A6193EC71699}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1998,7 +1901,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:B43</xm:sqref>
+          <xm:sqref>B31:B43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2012,29 +1915,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2042,4 +1945,812 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7677677-E1F4-40FF-B8C0-372192DBA3AE}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="20">
+        <v>48000</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="34">
+        <v>138708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="20">
+        <f>48660+2000000+35000</f>
+        <v>2083660</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="20">
+        <f>50000*4+12*25000</f>
+        <v>500000</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="34">
+        <v>2059819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="20">
+        <v>275000</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="34">
+        <v>230692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20">
+        <f>1200000/1000*2400</f>
+        <v>2880000</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="34">
+        <v>572081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1300000</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="34">
+        <v>108695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20">
+        <v>120000</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="34">
+        <v>19881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="20">
+        <f>39790*200</f>
+        <v>7958000</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="34">
+        <v>215217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="20">
+        <v>400000</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="34">
+        <v>169502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="20">
+        <f>3500*2*28</f>
+        <v>196000</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="34">
+        <v>16093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="20">
+        <f>6*350000</f>
+        <v>2100000</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="34">
+        <v>32529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="20">
+        <v>54100000</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="34">
+        <v>525655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20">
+        <f>1300*1500</f>
+        <v>1950000</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="34">
+        <v>383791</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 G10 E12" xr:uid="{4657317D-F69E-4E95-B639-A1F0E7722EDC}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7EF8B7-F220-45B5-AB65-F2AF33268208}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>35000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>0.04</v>
+      </c>
+      <c r="J2">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>120000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>650000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>85000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>1000000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>0.02</v>
+      </c>
+      <c r="J6">
+        <v>0.02</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>10000000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0.05</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="18">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>2750000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>1500000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>230000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>0.02</v>
+      </c>
+      <c r="J10">
+        <v>0.02</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>1000000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{37ABE97C-4040-469C-B913-D96DE90EA3F8}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A830BAA2-707C-4E9E-A3DC-014EF5346A53}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AD2F97-388F-42E6-8E5D-509CE7619DDB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
@@ -645,6 +645,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -672,7 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -739,10 +739,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,7 +1041,7 @@
   <dimension ref="A2:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,23 +1069,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C5"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1100,84 +1096,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -1596,7 +1592,7 @@
         <v>68</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="24"/>
@@ -1874,14 +1870,11 @@
     <mergeCell ref="D4:I15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O28:O33 F31:F44 H31:H43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43 O18:O27" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F28" xr:uid="{9CCA73AF-A232-458D-A6A6-A6193EC71699}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43 O18:O27 F26 F28:F29" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2015,7 +2008,7 @@
       <c r="G2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="25">
         <v>138708</v>
       </c>
     </row>
@@ -2040,7 +2033,7 @@
       <c r="G3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2067,7 +2060,7 @@
       <c r="G4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="25">
         <v>2059819</v>
       </c>
     </row>
@@ -2093,7 +2086,7 @@
       <c r="G5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="25">
         <v>230692</v>
       </c>
     </row>
@@ -2120,7 +2113,7 @@
       <c r="G6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="25">
         <v>572081</v>
       </c>
     </row>
@@ -2146,7 +2139,7 @@
       <c r="G7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="25">
         <v>108695</v>
       </c>
     </row>
@@ -2172,7 +2165,7 @@
       <c r="G8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="25">
         <v>19881</v>
       </c>
     </row>
@@ -2199,7 +2192,7 @@
       <c r="G9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="25">
         <v>215217</v>
       </c>
     </row>
@@ -2225,7 +2218,7 @@
       <c r="G10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="25">
         <v>169502</v>
       </c>
     </row>
@@ -2252,7 +2245,7 @@
       <c r="G11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="25">
         <v>16093</v>
       </c>
     </row>
@@ -2279,7 +2272,7 @@
       <c r="G12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="25">
         <v>32529</v>
       </c>
     </row>
@@ -2305,7 +2298,7 @@
       <c r="G13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="25">
         <v>525655</v>
       </c>
     </row>
@@ -2332,7 +2325,7 @@
       <c r="G14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="25">
         <v>383791</v>
       </c>
     </row>

--- a/data/Interventions_One_Federal_source.xlsx
+++ b/data/Interventions_One_Federal_source.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AD2F97-388F-42E6-8E5D-509CE7619DDB}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="8_{7E2A0C6A-54A5-426B-8D0F-83B42C89CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A3D215-31E8-4346-80EC-82A4DEB9572F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="One Fed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="222 Second" sheetId="3" r:id="rId3"/>
-    <sheet name="160 Spear" sheetId="4" r:id="rId4"/>
+    <sheet name="222 N Lassalle" sheetId="6" r:id="rId3"/>
+    <sheet name="222 Second" sheetId="3" r:id="rId4"/>
+    <sheet name="160 Spear" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'One Fed'!$B$17:$P$27</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="74">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -299,7 +300,13 @@
     <t>Chiller EOL Replacement</t>
   </si>
   <si>
-    <t>222 Second Street</t>
+    <t>222 N LaSalle</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converge Network People counters </t>
   </si>
 </sst>
 </file>
@@ -741,6 +748,103 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1468976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A735AB-347D-4760-8C73-18216D22ACC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8076406" y="154781"/>
+          <a:ext cx="1457070" cy="573094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1468976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B043CE7-319C-41CC-999A-2D94A273CA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8076406" y="154781"/>
+          <a:ext cx="1457070" cy="573094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1038,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
-  <dimension ref="A2:P43"/>
+  <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1330,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1244,21 +1348,33 @@
       <c r="F18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18">
-        <v>0.04</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="21"/>
+      <c r="G18" s="20">
+        <v>48000</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="25">
+        <v>138708</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="19">
+        <v>10</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
       <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
+      <c r="P18" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1268,27 +1384,40 @@
         <v>2</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19">
+      <c r="G19" s="20">
+        <f>48660+2000000+35000</f>
+        <v>2083660</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="25">
         <v>0</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19" s="19"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19">
+        <v>15</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2025</v>
+      </c>
       <c r="N19" s="21"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
+      <c r="P19" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -1306,21 +1435,34 @@
       <c r="F20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20">
-        <v>0.03</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="21"/>
+      <c r="G20" s="20">
+        <f>50000*4+12*25000</f>
+        <v>500000</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="25">
+        <v>2059819</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="19">
+        <v>15</v>
+      </c>
+      <c r="M20" s="19">
+        <v>2026</v>
+      </c>
+      <c r="N20" s="21">
+        <v>-15000</v>
+      </c>
       <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
+      <c r="P20" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -1338,21 +1480,31 @@
       <c r="F21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21">
-        <v>0.02</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21" s="19"/>
+      <c r="G21" s="20">
+        <v>275000</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="25">
+        <v>230692</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="19">
+        <v>20</v>
+      </c>
+      <c r="M21" s="19">
+        <v>2025</v>
+      </c>
       <c r="N21" s="21"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
+      <c r="P21" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -1370,21 +1522,32 @@
       <c r="F22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22" s="19"/>
+      <c r="G22" s="20">
+        <f>1200000/1000*2400</f>
+        <v>2880000</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="25">
+        <v>572081</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="19">
+        <v>20</v>
+      </c>
+      <c r="M22" s="19">
+        <v>2028</v>
+      </c>
       <c r="N22" s="21"/>
       <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
+      <c r="P22" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -1402,21 +1565,31 @@
       <c r="F23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23">
-        <v>0.02</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23" s="19"/>
+      <c r="G23" s="20">
+        <v>1300000</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="25">
+        <v>108695</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="19">
+        <v>15</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2025</v>
+      </c>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
+      <c r="P23" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -1434,21 +1607,31 @@
       <c r="F24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24">
-        <v>1E-3</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24" s="19"/>
+      <c r="G24" s="20">
+        <v>120000</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="25">
+        <v>19881</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="19">
+        <v>20</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2025</v>
+      </c>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
+      <c r="P24" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -1466,21 +1649,32 @@
       <c r="F25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25">
-        <v>1E-4</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25" s="19"/>
+      <c r="G25" s="20">
+        <f>39790*200</f>
+        <v>7958000</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="25">
+        <v>215217</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="19">
+        <v>35</v>
+      </c>
+      <c r="M25" s="19">
+        <v>2029</v>
+      </c>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
+      <c r="P25" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -1498,21 +1692,31 @@
       <c r="F26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26">
-        <v>0.01</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26" s="19"/>
+      <c r="G26" s="20">
+        <v>400000</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="25">
+        <v>169502</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="19">
+        <v>25</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2030</v>
+      </c>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
+      <c r="P26" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -1530,21 +1734,32 @@
       <c r="F27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27">
-        <v>0.3</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="G27" s="20">
+        <f>3500*2*28</f>
+        <v>196000</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="25">
+        <v>16093</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="19">
+        <v>15</v>
+      </c>
+      <c r="M27" s="19">
+        <v>2025</v>
+      </c>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
+      <c r="P27" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -1562,21 +1777,32 @@
       <c r="F28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="17">
-        <v>0.1</v>
+      <c r="G28" s="20">
+        <f>6*350000</f>
+        <v>2100000</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="25">
+        <v>32529</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="19">
+        <v>35</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2025</v>
+      </c>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="P28" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -1592,23 +1818,33 @@
         <v>68</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="17">
-        <v>0.02</v>
+        <v>54</v>
+      </c>
+      <c r="G29" s="20">
+        <v>54100000</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="25">
+        <v>525655</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="19">
+        <v>40</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2035</v>
+      </c>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="P29" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -1626,18 +1862,832 @@
       <c r="F30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="17">
-        <v>0.15</v>
+      <c r="G30" s="20">
+        <f>1300*1500</f>
+        <v>1950000</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="25">
+        <v>383791</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="19">
+        <v>35</v>
+      </c>
+      <c r="M30" s="19">
+        <v>2030</v>
+      </c>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
+      <c r="P30" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:P30">
+    <sortCondition ref="C18:C30"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D4:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 H26 F28 O18:O30" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2E54ED-FA3E-404F-B8C1-A4273C92F2A2}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD6620-112F-45C6-AFAD-CCA1CA96DCC3}">
+  <dimension ref="A2:P43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C5"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C6" s="3"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="20">
+        <v>48000</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="25">
+        <v>138708</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="19">
+        <v>10</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="20">
+        <f>48660+2000000+35000</f>
+        <v>2083660</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19">
+        <v>15</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="20">
+        <f>50000*4+12*25000</f>
+        <v>500000</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="25">
+        <v>2059819</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="19">
+        <v>15</v>
+      </c>
+      <c r="M20" s="19">
+        <v>2026</v>
+      </c>
+      <c r="N20" s="21">
+        <v>-15000</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="18">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="20">
+        <v>275000</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="25">
+        <v>230692</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="19">
+        <v>20</v>
+      </c>
+      <c r="M21" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="20">
+        <f>1200000/1000*2400</f>
+        <v>2880000</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="25">
+        <v>572081</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="19">
+        <v>20</v>
+      </c>
+      <c r="M22" s="19">
+        <v>2028</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1300000</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="25">
+        <v>108695</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="19">
+        <v>15</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="18">
+        <v>7</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="20">
+        <v>120000</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="25">
+        <v>19881</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="19">
+        <v>20</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="18">
+        <v>8</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="20">
+        <f>39790*200</f>
+        <v>7958000</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="25">
+        <v>215217</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="19">
+        <v>35</v>
+      </c>
+      <c r="M25" s="19">
+        <v>2029</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="18">
+        <v>9</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="20">
+        <v>400000</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="25">
+        <v>169502</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="19">
+        <v>25</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2030</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="20">
+        <f>3500*2*28</f>
+        <v>196000</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="25">
+        <v>16093</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="19">
+        <v>15</v>
+      </c>
+      <c r="M27" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="20">
+        <f>6*350000</f>
+        <v>2100000</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="25">
+        <v>32529</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="19">
+        <v>35</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2025</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="20">
+        <v>54100000</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="25">
+        <v>525655</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="19">
+        <v>40</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2035</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="20">
+        <f>1300*1500</f>
+        <v>1950000</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="25">
+        <v>383791</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="19">
+        <v>35</v>
+      </c>
+      <c r="M30" s="19">
+        <v>2030</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D31" s="19"/>
@@ -1863,38 +2913,33 @@
       <c r="P43" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:P30">
-    <sortCondition ref="C18:C30"/>
-  </sortState>
   <mergeCells count="1">
     <mergeCell ref="D4:I15"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O28:O33 F31:F44 H31:H43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 H26 F28 O18:O30" xr:uid="{0366DE21-3496-4E40-9387-7703B03A7285}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34:O43 O18:O27 F26 F28:F29" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31:H43 F31:F44 O31:O43" xr:uid="{194B9743-F40C-45C2-8612-5F9A36B1FC75}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F74E3BBC-93B3-4149-AA4B-B052653A51FA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5AC8DA89-CE43-4B7E-8116-98C9A6F06203}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B31:B43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{848347CF-9068-42E1-8071-4F7B3BAE5274}">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D12C665F-453A-4F1E-8EAE-C130CC2C9B89}">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B31:B43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1902,45 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2E54ED-FA3E-404F-B8C1-A4273C92F2A2}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7677677-E1F4-40FF-B8C0-372192DBA3AE}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2339,7 +3346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7EF8B7-F220-45B5-AB65-F2AF33268208}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -2348,6 +3355,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" width="20.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
